--- a/output/external_stat_report_class.xlsx
+++ b/output/external_stat_report_class.xlsx
@@ -12,36 +12,27 @@
     <sheet name="class 2" sheetId="3" r:id="rId3"/>
     <sheet name="class 3" sheetId="4" r:id="rId4"/>
     <sheet name="class 4" sheetId="5" r:id="rId5"/>
-    <sheet name="class 5" sheetId="6" r:id="rId6"/>
-    <sheet name="class 6" sheetId="7" r:id="rId7"/>
-    <sheet name="class 7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
-    <t>0.33</t>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.63</t>
   </si>
   <si>
     <t>0.00</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.40</t>
   </si>
 </sst>
 </file>
@@ -429,13 +420,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -453,13 +444,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -477,30 +468,6 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
@@ -508,54 +475,6 @@
       </c>
       <c r="C1" t="s">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/output/external_stat_report_class.xlsx
+++ b/output/external_stat_report_class.xlsx
@@ -10,29 +10,18 @@
     <sheet name="class 0" sheetId="1" r:id="rId1"/>
     <sheet name="class 1" sheetId="2" r:id="rId2"/>
     <sheet name="class 2" sheetId="3" r:id="rId3"/>
-    <sheet name="class 3" sheetId="4" r:id="rId4"/>
-    <sheet name="class 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
   <si>
-    <t>0.89</t>
+    <t>0.00</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.00</t>
+    <t>0.37</t>
   </si>
 </sst>
 </file>
@@ -420,61 +409,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/external_stat_report_class.xlsx
+++ b/output/external_stat_report_class.xlsx
@@ -21,7 +21,7 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>0.37</t>
+    <t>0.40</t>
   </si>
 </sst>
 </file>

--- a/output/external_stat_report_class.xlsx
+++ b/output/external_stat_report_class.xlsx
@@ -21,10 +21,10 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>0.92</t>
+    <t>0.57</t>
   </si>
   <si>
-    <t>0.52</t>
+    <t>0.92</t>
   </si>
 </sst>
 </file>
